--- a/results/I3_N5_M2_T30_C150_DepCentral_s2_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s2_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>601.3543644343575</v>
+        <v>1776.609827157087</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.002999782562255859</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.12359190547742e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.71436508284903</v>
+        <v>22.10310020474523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>16.62778373515295</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.134510687494965</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>312.6399993515084</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -736,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.134510687494963</v>
+        <v>11.95858503259002</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.799341493038749</v>
+        <v>11.29375422704624</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677591</v>
+        <v>25.17182228993174</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.17869683315583</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.51673143700226</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.82130316684417</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,216 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>33.5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>27.15499999999986</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>31.25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>30.69499999999985</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>35.62999999999985</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>133.8200000000004</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6450000000004</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>129.9150000000005</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7350000000005</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>131.6100000000004</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9949999999997</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>186.0550000000012</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>169.9950000000012</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>174.4400000000012</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>173.5200000000012</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>182.4100000000011</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>186.0550000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>169.9950000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>174.4400000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>173.5200000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>182.4100000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>147.3399999999997</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>159.2049999999997</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>140.4299999999997</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>157.7</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9949999999997</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>36.05500000000117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19.99499988555908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>24.44000000000119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>23.51999998092651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>32.41000000000113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9.204999923706055</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.7</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.994999885559082</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>10.155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9.879999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>10.045</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>18.02</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.835</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>19.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1830,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,10 +2180,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1926,10 +2191,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1937,10 +2202,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1948,10 +2213,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1959,10 +2224,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1970,10 +2235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1981,10 +2246,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1992,12 +2257,89 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
